--- a/ComplementaryData/Yeast8_Modification.xlsx
+++ b/ComplementaryData/Yeast8_Modification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feiranl/Documents/GitHub/pcSecYeast/ComplementaryData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C700D-980B-FE49-BB7B-7030F4ABCDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A6C31C-CC7B-9343-B2E2-90834B31B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19420" xr2:uid="{AA1C94E4-56CD-3140-BF87-113D1E6E5D47}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12175" uniqueCount="12082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12176" uniqueCount="12083">
   <si>
     <t>Description</t>
   </si>
@@ -35824,45 +35824,6 @@
     <t>GPI-anchor assembly, step 2</t>
   </si>
   <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>89</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>GPIB3</t>
   </si>
   <si>
@@ -36317,13 +36278,19 @@
   </si>
   <si>
     <t xml:space="preserve">H2O [cytoplasm] + ATP [cytoplasm] + Ubiquitin [cytoplasm] =&gt; H+ [cytoplasm] + diphosphate [cytoplasm] + AMP [cytoplasm] + Ubiquitin_for_Transfer [cytoplasm] </t>
+  </si>
+  <si>
+    <t>pmid/23135325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pmid/31319476 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -36342,17 +36309,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -36368,7 +36324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -36376,30 +36332,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -36719,9 +36661,9 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36758,7 +36700,7 @@
         <v>11802</v>
       </c>
       <c r="C2" t="s">
-        <v>12032</v>
+        <v>12031</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -36769,7 +36711,7 @@
         <v>11803</v>
       </c>
       <c r="C3" t="s">
-        <v>12033</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -36780,7 +36722,7 @@
         <v>11802</v>
       </c>
       <c r="C4" t="s">
-        <v>12034</v>
+        <v>12033</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -36791,7 +36733,7 @@
         <v>11803</v>
       </c>
       <c r="C5" t="s">
-        <v>12035</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -36802,7 +36744,7 @@
         <v>11802</v>
       </c>
       <c r="C6" t="s">
-        <v>12036</v>
+        <v>12035</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -36813,7 +36755,7 @@
         <v>11803</v>
       </c>
       <c r="C7" t="s">
-        <v>12037</v>
+        <v>12036</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -36824,7 +36766,7 @@
         <v>11802</v>
       </c>
       <c r="C8" t="s">
-        <v>12038</v>
+        <v>12037</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -36835,7 +36777,7 @@
         <v>11803</v>
       </c>
       <c r="C9" t="s">
-        <v>12039</v>
+        <v>12038</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -36846,7 +36788,7 @@
         <v>11804</v>
       </c>
       <c r="C10" t="s">
-        <v>12040</v>
+        <v>12039</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -36857,7 +36799,7 @@
         <v>11805</v>
       </c>
       <c r="C11" t="s">
-        <v>12041</v>
+        <v>12040</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -36868,7 +36810,7 @@
         <v>11806</v>
       </c>
       <c r="C12" t="s">
-        <v>12042</v>
+        <v>12041</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -36879,7 +36821,7 @@
         <v>11807</v>
       </c>
       <c r="C13" t="s">
-        <v>12043</v>
+        <v>12042</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -36890,7 +36832,7 @@
         <v>11808</v>
       </c>
       <c r="C14" t="s">
-        <v>12044</v>
+        <v>12043</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -36901,7 +36843,7 @@
         <v>11809</v>
       </c>
       <c r="C15" t="s">
-        <v>12045</v>
+        <v>12044</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -36912,7 +36854,7 @@
         <v>11808</v>
       </c>
       <c r="C16" t="s">
-        <v>12044</v>
+        <v>12043</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -36923,7 +36865,7 @@
         <v>11809</v>
       </c>
       <c r="C17" t="s">
-        <v>12045</v>
+        <v>12044</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -36934,7 +36876,7 @@
         <v>11810</v>
       </c>
       <c r="C18" t="s">
-        <v>12046</v>
+        <v>12045</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -36945,7 +36887,7 @@
         <v>11811</v>
       </c>
       <c r="C19" t="s">
-        <v>12047</v>
+        <v>12046</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -36956,7 +36898,7 @@
         <v>11812</v>
       </c>
       <c r="C20" t="s">
-        <v>12048</v>
+        <v>12047</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -36967,7 +36909,7 @@
         <v>11813</v>
       </c>
       <c r="C21" t="s">
-        <v>12049</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -36978,7 +36920,7 @@
         <v>11814</v>
       </c>
       <c r="C22" t="s">
-        <v>12050</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -36989,7 +36931,7 @@
         <v>11815</v>
       </c>
       <c r="C23" t="s">
-        <v>12051</v>
+        <v>12050</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -37000,7 +36942,7 @@
         <v>11816</v>
       </c>
       <c r="C24" t="s">
-        <v>12052</v>
+        <v>12051</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -37011,7 +36953,7 @@
         <v>11817</v>
       </c>
       <c r="C25" t="s">
-        <v>12053</v>
+        <v>12052</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -37022,7 +36964,7 @@
         <v>11818</v>
       </c>
       <c r="C26" t="s">
-        <v>12054</v>
+        <v>12053</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -37033,7 +36975,7 @@
         <v>11819</v>
       </c>
       <c r="C27" t="s">
-        <v>12055</v>
+        <v>12054</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -37044,7 +36986,7 @@
         <v>11819</v>
       </c>
       <c r="C28" t="s">
-        <v>12056</v>
+        <v>12055</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -37055,7 +36997,7 @@
         <v>11820</v>
       </c>
       <c r="C29" t="s">
-        <v>12057</v>
+        <v>12056</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -37066,7 +37008,7 @@
         <v>11821</v>
       </c>
       <c r="C30" t="s">
-        <v>12058</v>
+        <v>12057</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -37077,7 +37019,7 @@
         <v>11822</v>
       </c>
       <c r="C31" t="s">
-        <v>12059</v>
+        <v>12058</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -37088,7 +37030,7 @@
         <v>11823</v>
       </c>
       <c r="C32" t="s">
-        <v>12060</v>
+        <v>12059</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -37099,7 +37041,7 @@
         <v>11824</v>
       </c>
       <c r="C33" t="s">
-        <v>12061</v>
+        <v>12060</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -37110,7 +37052,7 @@
         <v>11825</v>
       </c>
       <c r="C34" t="s">
-        <v>12062</v>
+        <v>12061</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -37121,7 +37063,7 @@
         <v>11826</v>
       </c>
       <c r="C35" t="s">
-        <v>12063</v>
+        <v>12062</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -37132,7 +37074,7 @@
         <v>11827</v>
       </c>
       <c r="C36" t="s">
-        <v>12064</v>
+        <v>12063</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -37143,7 +37085,7 @@
         <v>11828</v>
       </c>
       <c r="C37" t="s">
-        <v>12065</v>
+        <v>12064</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -37154,7 +37096,7 @@
         <v>11829</v>
       </c>
       <c r="C38" t="s">
-        <v>12066</v>
+        <v>12065</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -37165,7 +37107,7 @@
         <v>11830</v>
       </c>
       <c r="C39" t="s">
-        <v>12067</v>
+        <v>12066</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -37176,7 +37118,7 @@
         <v>11831</v>
       </c>
       <c r="C40" t="s">
-        <v>12068</v>
+        <v>12067</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -37187,7 +37129,7 @@
         <v>11832</v>
       </c>
       <c r="C41" t="s">
-        <v>12069</v>
+        <v>12068</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -37198,7 +37140,7 @@
         <v>11833</v>
       </c>
       <c r="C42" t="s">
-        <v>12070</v>
+        <v>12069</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -37209,18 +37151,18 @@
         <v>11834</v>
       </c>
       <c r="C43" t="s">
-        <v>12071</v>
+        <v>12070</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>12076</v>
+        <v>12075</v>
       </c>
       <c r="B44" t="s">
         <v>11835</v>
       </c>
       <c r="C44" t="s">
-        <v>12075</v>
+        <v>12074</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -37231,7 +37173,7 @@
         <v>11836</v>
       </c>
       <c r="C45" t="s">
-        <v>12072</v>
+        <v>12071</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -37242,7 +37184,7 @@
         <v>11837</v>
       </c>
       <c r="C46" t="s">
-        <v>12081</v>
+        <v>12080</v>
       </c>
       <c r="E46" t="s">
         <v>11873</v>
@@ -37256,7 +37198,7 @@
         <v>11838</v>
       </c>
       <c r="C47" t="s">
-        <v>12005</v>
+        <v>12004</v>
       </c>
       <c r="D47" t="s">
         <v>11897</v>
@@ -37270,7 +37212,7 @@
         <v>11839</v>
       </c>
       <c r="C48" t="s">
-        <v>12006</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -37281,7 +37223,7 @@
         <v>11840</v>
       </c>
       <c r="C49" t="s">
-        <v>12007</v>
+        <v>12006</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -37292,7 +37234,7 @@
         <v>11841</v>
       </c>
       <c r="C50" t="s">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="D50" t="s">
         <v>7892</v>
@@ -37306,7 +37248,7 @@
         <v>11842</v>
       </c>
       <c r="C51" t="s">
-        <v>12009</v>
+        <v>12008</v>
       </c>
       <c r="D51" t="s">
         <v>821</v>
@@ -37320,7 +37262,7 @@
         <v>11843</v>
       </c>
       <c r="C52" t="s">
-        <v>12010</v>
+        <v>12009</v>
       </c>
       <c r="D52" t="s">
         <v>11844</v>
@@ -37334,7 +37276,7 @@
         <v>11845</v>
       </c>
       <c r="C53" t="s">
-        <v>12011</v>
+        <v>12010</v>
       </c>
       <c r="D53" t="s">
         <v>579</v>
@@ -37348,7 +37290,7 @@
         <v>11846</v>
       </c>
       <c r="C54" t="s">
-        <v>12012</v>
+        <v>12011</v>
       </c>
       <c r="D54" t="s">
         <v>5069</v>
@@ -37362,7 +37304,7 @@
         <v>11847</v>
       </c>
       <c r="C55" t="s">
-        <v>12013</v>
+        <v>12012</v>
       </c>
       <c r="D55" t="s">
         <v>5069</v>
@@ -37376,7 +37318,7 @@
         <v>11848</v>
       </c>
       <c r="C56" t="s">
-        <v>12014</v>
+        <v>12013</v>
       </c>
       <c r="D56" t="s">
         <v>8569</v>
@@ -37390,7 +37332,7 @@
         <v>11848</v>
       </c>
       <c r="C57" t="s">
-        <v>12015</v>
+        <v>12014</v>
       </c>
       <c r="D57" t="s">
         <v>8569</v>
@@ -37404,7 +37346,7 @@
         <v>11849</v>
       </c>
       <c r="C58" t="s">
-        <v>12016</v>
+        <v>12015</v>
       </c>
       <c r="D58" t="s">
         <v>223</v>
@@ -37418,7 +37360,7 @@
         <v>11850</v>
       </c>
       <c r="C59" t="s">
-        <v>12017</v>
+        <v>12016</v>
       </c>
       <c r="D59" t="s">
         <v>223</v>
@@ -37432,7 +37374,7 @@
         <v>11898</v>
       </c>
       <c r="C60" t="s">
-        <v>11980</v>
+        <v>11979</v>
       </c>
       <c r="D60" t="s">
         <v>223</v>
@@ -37446,7 +37388,7 @@
         <v>11851</v>
       </c>
       <c r="C61" t="s">
-        <v>11981</v>
+        <v>11980</v>
       </c>
       <c r="D61" t="s">
         <v>333</v>
@@ -37463,7 +37405,7 @@
         <v>11848</v>
       </c>
       <c r="C62" t="s">
-        <v>11982</v>
+        <v>11981</v>
       </c>
       <c r="D62" t="s">
         <v>8876</v>
@@ -37480,7 +37422,7 @@
         <v>11847</v>
       </c>
       <c r="C63" t="s">
-        <v>11983</v>
+        <v>11982</v>
       </c>
       <c r="D63" t="s">
         <v>9156</v>
@@ -37497,7 +37439,7 @@
         <v>11848</v>
       </c>
       <c r="C64" t="s">
-        <v>11984</v>
+        <v>11983</v>
       </c>
       <c r="D64" t="s">
         <v>8876</v>
@@ -37514,7 +37456,7 @@
         <v>11852</v>
       </c>
       <c r="C65" t="s">
-        <v>11985</v>
+        <v>11984</v>
       </c>
       <c r="D65" t="s">
         <v>10689</v>
@@ -37531,7 +37473,7 @@
         <v>11853</v>
       </c>
       <c r="C66" t="s">
-        <v>11986</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -37542,7 +37484,7 @@
         <v>11854</v>
       </c>
       <c r="C67" t="s">
-        <v>11987</v>
+        <v>11986</v>
       </c>
       <c r="D67" t="s">
         <v>9548</v>
@@ -37559,7 +37501,7 @@
         <v>11855</v>
       </c>
       <c r="C68" t="s">
-        <v>11988</v>
+        <v>11987</v>
       </c>
       <c r="D68" t="s">
         <v>9666</v>
@@ -37576,7 +37518,7 @@
         <v>11856</v>
       </c>
       <c r="C69" t="s">
-        <v>11989</v>
+        <v>11988</v>
       </c>
       <c r="D69" t="s">
         <v>5838</v>
@@ -37593,7 +37535,7 @@
         <v>11857</v>
       </c>
       <c r="C70" t="s">
-        <v>12073</v>
+        <v>12072</v>
       </c>
       <c r="D70" t="s">
         <v>5492</v>
@@ -37610,7 +37552,7 @@
         <v>11858</v>
       </c>
       <c r="C71" t="s">
-        <v>11990</v>
+        <v>11989</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -37621,7 +37563,7 @@
         <v>11859</v>
       </c>
       <c r="C72" t="s">
-        <v>11991</v>
+        <v>11990</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -37632,7 +37574,7 @@
         <v>11860</v>
       </c>
       <c r="C73" t="s">
-        <v>11992</v>
+        <v>11991</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -37643,7 +37585,7 @@
         <v>11910</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>11993</v>
+        <v>11992</v>
       </c>
       <c r="D74" t="s">
         <v>11912</v>
@@ -37657,24 +37599,24 @@
         <v>11913</v>
       </c>
       <c r="C75" t="s">
-        <v>11994</v>
+        <v>11993</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>12080</v>
+        <v>12079</v>
       </c>
       <c r="B76" t="s">
         <v>11915</v>
       </c>
       <c r="C76" t="s">
-        <v>12079</v>
+        <v>12078</v>
       </c>
       <c r="D76" t="s">
+        <v>12076</v>
+      </c>
+      <c r="E76" t="s">
         <v>12077</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12078</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -37685,7 +37627,7 @@
         <v>11917</v>
       </c>
       <c r="C77" t="s">
-        <v>11995</v>
+        <v>11994</v>
       </c>
       <c r="E77" t="s">
         <v>11919</v>
@@ -37699,7 +37641,7 @@
         <v>11863</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>11996</v>
+        <v>11995</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>994</v>
@@ -37713,7 +37655,7 @@
         <v>11864</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>11997</v>
+        <v>11996</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>11921</v>
@@ -37727,7 +37669,7 @@
         <v>11923</v>
       </c>
       <c r="C80" t="s">
-        <v>11998</v>
+        <v>11997</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -37738,13 +37680,13 @@
         <v>11865</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>11999</v>
+        <v>11998</v>
       </c>
       <c r="D81" t="s">
         <v>11926</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>11927</v>
       </c>
@@ -37752,120 +37694,120 @@
         <v>11928</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>12000</v>
+        <v>11999</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>8398</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>11929</v>
+      <c r="E82" s="3" t="s">
+        <v>12081</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>11930</v>
+        <v>11929</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>11866</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>12001</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>11931</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>11932</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>11933</v>
-      </c>
       <c r="C84" s="3" t="s">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>6131</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>11934</v>
+        <v>11933</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>11934</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>11935</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
+        <v>12024</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>11936</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>12025</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>11937</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>11938</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>11938</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>11939</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>11940</v>
-      </c>
       <c r="C86" s="3" t="s">
-        <v>12026</v>
+        <v>12025</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>2894</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>11938</v>
+        <v>11937</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
+        <v>11940</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>11941</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>11942</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>12027</v>
+        <v>12026</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>387</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>11943</v>
+        <v>11942</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>11943</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>11944</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>11945</v>
-      </c>
       <c r="C88" s="3" t="s">
-        <v>12028</v>
+        <v>12027</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>5207</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>11938</v>
+        <v>11937</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>11955</v>
+        <v>11954</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>11867</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>12029</v>
+        <v>12028</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>9817</v>
@@ -37873,65 +37815,68 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>11946</v>
+        <v>11945</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>11868</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>12030</v>
+        <v>12029</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>11947</v>
+        <v>11946</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>11938</v>
+        <v>11937</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>11948</v>
+        <v>11947</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>11869</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>12031</v>
+        <v>12030</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>11948</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>12082</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
         <v>11949</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>11950</v>
       </c>
       <c r="B92" t="s">
         <v>11870</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
+        <v>12002</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>11952</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>8465</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>11871</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>12003</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6" t="s">
+      <c r="D93" s="5" t="s">
+        <v>8464</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>11953</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>8465</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>11871</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>12004</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>8464</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>11954</v>
       </c>
     </row>
   </sheetData>
@@ -37981,331 +37926,331 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>11955</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>11930</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>12017</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12018</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>12019</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>12020</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>12021</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>12022</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>12023</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>11950</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>11951</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>11918</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>11956</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>11956</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>11931</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>12018</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>12019</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>12020</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>12021</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>12022</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>12023</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>12024</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>11951</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>11951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>11952</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>11952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>11918</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>11957</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>11957</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>11958</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>11958</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>11924</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>11959</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>11959</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>11924</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>11924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>11960</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>11960</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>11961</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>11961</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>11962</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>11962</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>11963</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>11963</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>11964</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>11964</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>11965</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>11965</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>11966</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>11966</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>11967</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>11967</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>11968</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>11968</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>11969</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>11969</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>11970</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>11970</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>11971</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>11971</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>11972</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>11972</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>11973</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>11973</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>11904</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>11904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>11905</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>11905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>11974</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>11974</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>11904</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>11904</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>11905</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>11905</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>11975</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>11975</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>11976</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>11976</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>12073</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>12073</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>11911</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>11911</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>11914</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>11914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>11977</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>11977</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>12074</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>12074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>11911</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>11911</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>11914</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>11914</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>11978</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>11978</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>11979</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>11979</v>
       </c>
     </row>
   </sheetData>
